--- a/medicine/Mort/Rites_commémoratifs_dans_le_christianisme_orthodoxe/Rites_commémoratifs_dans_le_christianisme_orthodoxe.xlsx
+++ b/medicine/Mort/Rites_commémoratifs_dans_le_christianisme_orthodoxe/Rites_commémoratifs_dans_le_christianisme_orthodoxe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rites_comm%C3%A9moratifs_dans_le_christianisme_orthodoxe</t>
+          <t>Rites_commémoratifs_dans_le_christianisme_orthodoxe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les repas commémoratifs (rites commémoratifs, culte commémoratif, culte funèbre, repas commémoratif, table commémorative) sont des rites, célébrés à la mémoire du défunt, dont le principal, qui est un repas collectif organisé par des proches dans la maison du défunt ou au cimetière, immédiatement après l'enterrement et à certaines dates de commémorations.  
 L'Église orthodoxe considère qu'il  y a un état intermédiaire après la mort, pendant lequel l'âme hésite entre plusieurs demeures et il faut l'accompagner par des commémorations. La commémoration du défunt dans la tradition chrétienne byzantine slave a lieu trois fois.  
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rites_comm%C3%A9moratifs_dans_le_christianisme_orthodoxe</t>
+          <t>Rites_commémoratifs_dans_le_christianisme_orthodoxe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les rites commémoratifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première commémoration a lieu le jour des funérailles, c'est-à-dire le troisième jour, en prenant le jour même du décès comme premier jour du compte à rebours, même s'il est survenu peu avant minuit ; la deuxième commémoration se déroule le neuvième jour, et la troisième commémoration, lors du Service mémoriel  (40 jours). Par la suite, une commémoration est organisée pour le premier anniversaire de la mort, à laquelle tous ceux qui souhaitent se souvenir viennent, il est généralement d'usage de visiter la tombe du défunt ce jour-là. Puis une commémoration, déjà dans un cercle familial proche, a lieu à chaque anniversaire du décès, à l'anniversaire et le jour de la fête du saint dont le défunt portait le nom. Il existe deux types de commémorations : privée, se référant à un défunt particulier, et générale, organisée à la mémoire de tous les défunts. Aller au cimetière le jour de l'anniversaire du défunt est une ancienne tradition, encouragée par l’Église.
 La tradition d'une commémoration est ancrée dans un passé lointain. Des coutumes similaires sont observées dans d'autres religions de diverses nations, ce qui est associé à la croyance d'une personne en l'immortalité de l'âme. Dans la tradition chrétienne, la coutume de la commémoration se réduit principalement à un repas commémoratif. Mais la commémoration, ce n'est pas seulement un repas, c'est un rituel particulier, dont le but est de se rappeler d'une personne, de lui rendre hommage, de se souvenir de ses bonnes actions.  
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rites_comm%C3%A9moratifs_dans_le_christianisme_orthodoxe</t>
+          <t>Rites_commémoratifs_dans_le_christianisme_orthodoxe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Premier repas commémoratif après les funérailles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les commémorations sont organisées immédiatement après les funérailles du défunt, le 3ème jour de sa mort.  
 On célèbre le nombre 3 car Jésus-Christ a ressuscité le 3ème jour après sa mort, de plus on retrouve ce nombre dans la Trinité. Les deux premiers jours, l'âme du défunt reste sur terre, étant proche de la famille, et visitant, en compagnie d'un Ange, des lieux de sa vie passée, lui procurant joie ou tristesse, se remémorant les bonnes ou mauvaises actions. Le troisième jour, le Seigneur lui ordonne de monter au ciel et de se présenter pour la première fois  devant Dieu. 
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rites_comm%C3%A9moratifs_dans_le_christianisme_orthodoxe</t>
+          <t>Rites_commémoratifs_dans_le_christianisme_orthodoxe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Repas commémoratif du neuvième jour</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la théologie orthodoxe, du troisième au neuvième jour, l'âme accompagnée d'anges entre dans les demeures célestes et contemple leur beauté. Le neuvième jour, le Seigneur ordonne aux anges de lui présenter l'âme pour l'adoration, l'âme apparaît à nouveau devant lui et contemple l'au-delà. La commémoration et les prières, ce jour-là, l'aident à passer cette épreuve.  
 Ce jour-là est organisé un service commémoratif. À cette commémoration, on invite seulement les plus proches amis et les proches du défunt. On demande la miséricorde divine pour le défunt et l'établissement de l'âme du défunt avec les saints.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rites_comm%C3%A9moratifs_dans_le_christianisme_orthodoxe</t>
+          <t>Rites_commémoratifs_dans_le_christianisme_orthodoxe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Repas commémoratif du quarantième jour</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Après le neuvième jour (moment d'adoration), les anges emmènent l'âme en enfer, et elle regarde les tourments des pécheurs impénitents. Le quarantième jour, l'âme monte une troisième fois au ciel pour adorer Dieu:  elle monte à la montagne sacrée du Sinaï céleste et contemple le divin. Et c'est pendant ce 40ème jour qu'on décide de son sort. Selon les affaires terrestres du défunt et  l'état spirituel de l'âme, le seigneur désigne un lieu de repos en prévision du Jugement Dernier : si l'âme atteint le bonheur promis, elle s'installe dans les villages céleste avec les justes.
 L’Église a donc établi une commémoration lors du quarantième jour après la mort, afin que les prières de la famille et des proches aident l'âme du défunt à atteindre le paradis. Le choix d'une commémoration se veut similaire au délai entre la résurrection du Christ et son ascension dans le ciel.
